--- a/TOFEL_QG_test.xlsx
+++ b/TOFEL_QG_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
   <si>
     <t>List1</t>
   </si>
@@ -427,6 +427,582 @@
   </si>
   <si>
     <t>amiable</t>
+  </si>
+  <si>
+    <t>amicable</t>
+  </si>
+  <si>
+    <t>amity</t>
+  </si>
+  <si>
+    <t>enmity</t>
+  </si>
+  <si>
+    <t>enamor</t>
+  </si>
+  <si>
+    <t>pamper</t>
+  </si>
+  <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>ambivalent</t>
+  </si>
+  <si>
+    <t>ambidextrous</t>
+  </si>
+  <si>
+    <t>ambience</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>acquiesce</t>
+  </si>
+  <si>
+    <t>efflorescence</t>
+  </si>
+  <si>
+    <t>quiescent</t>
+  </si>
+  <si>
+    <t>quietus</t>
+  </si>
+  <si>
+    <t>acquittal</t>
+  </si>
+  <si>
+    <t>convict</t>
+  </si>
+  <si>
+    <t>addle</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>adept</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>inept</t>
+  </si>
+  <si>
+    <t>inapt</t>
+  </si>
+  <si>
+    <t>deft</t>
+  </si>
+  <si>
+    <t>adroit</t>
+  </si>
+  <si>
+    <t>daft</t>
+  </si>
+  <si>
+    <t>adjacent</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>deject</t>
+  </si>
+  <si>
+    <t>abject</t>
+  </si>
+  <si>
+    <t>conjuecture</t>
+  </si>
+  <si>
+    <t>ejaculate</t>
+  </si>
+  <si>
+    <t>abut</t>
+  </si>
+  <si>
+    <t>adjoin</t>
+  </si>
+  <si>
+    <t>adjourn</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>sojourn</t>
+  </si>
+  <si>
+    <t>diurnal</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>adulterate</t>
+  </si>
+  <si>
+    <t>adultery</t>
+  </si>
+  <si>
+    <t>adulate</t>
+  </si>
+  <si>
+    <t>List5</t>
+  </si>
+  <si>
+    <t>annihilate</t>
+  </si>
+  <si>
+    <t>nihilism</t>
+  </si>
+  <si>
+    <t>nullify</t>
+  </si>
+  <si>
+    <t>annul</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>connotation</t>
+  </si>
+  <si>
+    <t>denotation</t>
+  </si>
+  <si>
+    <t>notorious</t>
+  </si>
+  <si>
+    <t>antagonize</t>
+  </si>
+  <si>
+    <t>antagonist</t>
+  </si>
+  <si>
+    <t>protagonist</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>agitate</t>
+  </si>
+  <si>
+    <t>cogitate</t>
+  </si>
+  <si>
+    <t>cogent</t>
+  </si>
+  <si>
+    <t>exigent</t>
+  </si>
+  <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>aquarium</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
+    <t>aquaous</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>arboretum</t>
+  </si>
+  <si>
+    <t>arboreal</t>
+  </si>
+  <si>
+    <t>ardent</t>
+  </si>
+  <si>
+    <t>fervid</t>
+  </si>
+  <si>
+    <t>fervent</t>
+  </si>
+  <si>
+    <t>profervid</t>
+  </si>
+  <si>
+    <t>ardor</t>
+  </si>
+  <si>
+    <t>arson</t>
+  </si>
+  <si>
+    <t>arsonist</t>
+  </si>
+  <si>
+    <t>arsenal</t>
+  </si>
+  <si>
+    <t>List6</t>
+  </si>
+  <si>
+    <t>arrant</t>
+  </si>
+  <si>
+    <t>flagrant</t>
+  </si>
+  <si>
+    <t>fragrant</t>
+  </si>
+  <si>
+    <t>errant</t>
+  </si>
+  <si>
+    <t>erroneous</t>
+  </si>
+  <si>
+    <t>inerrancy</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>aberrant</t>
+  </si>
+  <si>
+    <t>articulate</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>artful</t>
+  </si>
+  <si>
+    <t>artless</t>
+  </si>
+  <si>
+    <t>artisan</t>
+  </si>
+  <si>
+    <t>partisan</t>
+  </si>
+  <si>
+    <t>ascetic</t>
+  </si>
+  <si>
+    <t>athletic</t>
+  </si>
+  <si>
+    <t>libertine</t>
+  </si>
+  <si>
+    <t>indulgent</t>
+  </si>
+  <si>
+    <t>abstemious</t>
+  </si>
+  <si>
+    <t>askew</t>
+  </si>
+  <si>
+    <t>awry</t>
+  </si>
+  <si>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t>wrangle</t>
+  </si>
+  <si>
+    <t>wreak</t>
+  </si>
+  <si>
+    <t>writhe</t>
+  </si>
+  <si>
+    <t>wriggle</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>lust</t>
+  </si>
+  <si>
+    <t>envy</t>
+  </si>
+  <si>
+    <t>sloth</t>
+  </si>
+  <si>
+    <t>gluttony</t>
+  </si>
+  <si>
+    <t>glutinous</t>
+  </si>
+  <si>
+    <t>gluttonous</t>
+  </si>
+  <si>
+    <t>industrious</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>assiduous</t>
+  </si>
+  <si>
+    <t>insidious</t>
+  </si>
+  <si>
+    <t>subside</t>
+  </si>
+  <si>
+    <t>preside</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>dissident</t>
+  </si>
+  <si>
+    <t>sedentary</t>
+  </si>
+  <si>
+    <t>sedulous</t>
+  </si>
+  <si>
+    <t>supersede</t>
+  </si>
+  <si>
+    <t>assimilate</t>
+  </si>
+  <si>
+    <t>simultaneous</t>
+  </si>
+  <si>
+    <t>interpreter</t>
+  </si>
+  <si>
+    <t>dissimulate</t>
+  </si>
+  <si>
+    <t>dissemble</t>
+  </si>
+  <si>
+    <t>verisimilary</t>
+  </si>
+  <si>
+    <t>attenuate</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>tenuous</t>
+  </si>
+  <si>
+    <t>extenuate</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>audacious</t>
+  </si>
+  <si>
+    <t>dialogue</t>
+  </si>
+  <si>
+    <t>loguacioous</t>
+  </si>
+  <si>
+    <t>accretion</t>
+  </si>
+  <si>
+    <t>accrue</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>paramount</t>
+  </si>
+  <si>
+    <t>surmount</t>
+  </si>
+  <si>
+    <t>insurmountable</t>
+  </si>
+  <si>
+    <t>austere</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>veracious</t>
+  </si>
+  <si>
+    <t>bogus</t>
+  </si>
+  <si>
+    <t>phony</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>avarice</t>
+  </si>
+  <si>
+    <t>avaricious</t>
+  </si>
+  <si>
+    <t>voracious</t>
+  </si>
+  <si>
+    <t>covet</t>
+  </si>
+  <si>
+    <t>covetous</t>
+  </si>
+  <si>
+    <t>covert</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>List7</t>
+  </si>
+  <si>
+    <t>avert</t>
+  </si>
+  <si>
+    <t>advert</t>
+  </si>
+  <si>
+    <t>advertisement</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>pervert</t>
+  </si>
+  <si>
+    <t>controvert</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>subvert</t>
+  </si>
+  <si>
+    <t>subversive</t>
+  </si>
+  <si>
+    <t>perverse</t>
+  </si>
+  <si>
+    <t>controvesial</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>circumstance</t>
+  </si>
+  <si>
+    <t>adversity</t>
+  </si>
+  <si>
+    <t>adversary</t>
+  </si>
+  <si>
+    <t>extrovert</t>
+  </si>
+  <si>
+    <t>introvert</t>
+  </si>
+  <si>
+    <t>vertex</t>
+  </si>
+  <si>
+    <t>vortex</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>satellite</t>
+  </si>
+  <si>
+    <t>vertigo</t>
   </si>
 </sst>
 </file>
@@ -434,12 +1010,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,14 +1024,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -468,10 +1044,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -488,16 +1063,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,14 +1078,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,6 +1102,61 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,35 +1177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,33 +1193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,19 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,19 +1227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,37 +1245,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +1287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +1305,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,61 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,44 +1448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -933,6 +1477,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -941,10 +1523,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,150 +1535,153 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1483,13 +2068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
@@ -1509,7 +2094,7 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1520,7 +2105,7 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1531,7 +2116,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1542,7 +2127,7 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1553,7 +2138,7 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1564,7 +2149,7 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1575,13 +2160,13 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1592,13 +2177,13 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1609,13 +2194,13 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1626,13 +2211,13 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1643,10 +2228,10 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1654,10 +2239,10 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1665,10 +2250,10 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1676,10 +2261,10 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1687,10 +2272,10 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1698,10 +2283,10 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1709,10 +2294,10 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1821,7 +2406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:1">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:1">
+    <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
@@ -2291,7 +2876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:1">
+    <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
         <v>133</v>
       </c>
@@ -2309,6 +2894,976 @@
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
